--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,14 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/5/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -404,6 +412,17 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -423,6 +431,17 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/9/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knee Implant Research</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,6 +450,17 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Knee Implant Research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,14 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -461,6 +474,28 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/14/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -419,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -498,6 +502,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>1/14/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -511,6 +515,28 @@
       </c>
       <c r="C7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/16/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Research Implant Company</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -519,13 +527,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,6 +544,17 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>Research Implant Company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/24/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFP Update/Edit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -556,6 +564,17 @@
       </c>
       <c r="C10" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>CFP Update/Edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -568,12 +572,23 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1.75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
     </row>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>1/21/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/26/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - motor speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/27/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A11:XFD11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -590,6 +602,28 @@
       </c>
       <c r="C12" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>1/27/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/28/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,6 +628,17 @@
       </c>
       <c r="C14" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>1/28/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting - Chris meeting prep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chris Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -638,6 +654,39 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>2/2/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/3/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFP Update/Edit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A16:C17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -688,6 +696,17 @@
       </c>
       <c r="C18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>CFP Update/Edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/6/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFP Update and misc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -707,6 +715,17 @@
       </c>
       <c r="C19" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -30,34 +30,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/5/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/9/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Knee Implant Research</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -66,54 +50,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/14/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/16/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Research Implant Company</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/24/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CFP Update/Edit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/26/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR - motor speed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/27/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/28/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting - Chris meeting prep</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,23 +70,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/2/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/3/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CFP Update/Edit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/6/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CFP Update and misc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,11 +138,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -520,212 +467,234 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2">
+        <v>40183</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="2">
+        <v>40185</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="2">
+        <v>40187</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="2">
+        <v>40190</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>40190</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="2">
+        <v>40192</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
+      <c r="A8" s="2">
+        <v>40194</v>
       </c>
       <c r="B8">
         <v>1.5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="A9" s="2">
+        <v>40197</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10" s="2">
+        <v>40197</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>40199</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>16</v>
+      <c r="A12" s="2">
+        <v>40202</v>
       </c>
       <c r="B12">
         <v>1.75</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>19</v>
+      <c r="A13" s="2">
+        <v>40204</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="A14" s="2">
+        <v>40205</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="A15" s="2">
+        <v>40206</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16" s="2">
+        <v>40210</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>23</v>
+      <c r="A17" s="2">
+        <v>40210</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>26</v>
+      <c r="A18" s="2">
+        <v>40211</v>
       </c>
       <c r="B18">
         <v>1.5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>27</v>
+      <c r="A19" s="2">
+        <v>40212</v>
       </c>
       <c r="B19">
         <v>2.5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>29</v>
+      <c r="A20" s="2">
+        <v>40215</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>40229</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experimental Procedure</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -695,6 +699,17 @@
       </c>
       <c r="C22" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>40237</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>Group Meeting</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Experimental Procedure</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -448,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -703,13 +699,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>40237</v>
+        <v>40239</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -706,6 +710,17 @@
       </c>
       <c r="C23" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>40241</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experimental Procedure</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -703,23 +707,34 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>40239</v>
+        <v>40237</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>40241</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
     </row>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Experimental Procedure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pseudocode writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order Femurs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX &amp; protocol procedure</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -707,35 +719,68 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>40237</v>
+        <v>40235</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>40239</v>
+        <v>40237</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>40241</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>40242</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>40247</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>QNX &amp; protocol procedure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -774,12 +778,34 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>40247</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>21</v>
       </c>
     </row>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hard Constrait Programming</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -807,6 +811,28 @@
       </c>
       <c r="C30" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>40248</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>40250</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>Hard Constrait Programming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -833,6 +837,17 @@
       </c>
       <c r="C32" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>40253</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skype Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -474,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -848,6 +856,39 @@
       </c>
       <c r="C33" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B34">
+        <v>2.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>40263</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -889,6 +889,17 @@
       </c>
       <c r="C36" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>40270</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,6 +900,17 @@
       </c>
       <c r="C37" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>40274</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>Skype Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pair Programming Hard Constraint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -911,6 +919,28 @@
       </c>
       <c r="C38" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>40276</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>40279</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/erica.xlsx
+++ b/trunk/status reports/erica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final Report Editing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poster writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poster and presentation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -941,6 +953,39 @@
       </c>
       <c r="C40" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>40287</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>40288</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>40289</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
